--- a/pred_ohlcv/54_21/2019-10-26 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5237.605217263543</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-6553.506217263543</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-5391.176317263543</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-7840.319617263543</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-7840.319617263543</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-6911.816117263544</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-9524.537217263542</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-9449.537217263542</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-7905.484517263541</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4634.752617263541</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2339.391717263541</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-488.9272172635406</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2986.37631726354</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2072.21151726354</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2072.21151726354</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2372.74911726354</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3582.24741726354</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-3848.96201726354</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3611.883417263541</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2292.90941726354</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2292.90941726354</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2292.90941726354</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2282.806017263541</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2181.606017263541</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2150.900217263541</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2012.844117263541</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2100.93071726354</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2138.13821726354</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2224.189549616482</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2224.189549616482</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2623.189549616482</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2554.579349616482</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2552.492549616481</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1956.708449616482</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1199.301249616482</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>438.2216503835184</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>26.14365038351843</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>516.4816503835184</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4839.062650383518</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>3808.759350383518</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4207.440850383518</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5119.752550383519</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4361.956250383519</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>4674.311650383519</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>5795.954050383519</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3846.686350383518</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>2758.639450383518</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>274.8322503835179</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1001.288749616482</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-994.3987496164822</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-893.0772496164822</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1396.126349616482</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1799.911049616482</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1955.101049616482</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2392.489349616482</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4197.219549616482</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-10183.44634961648</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-10810.41264961648</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-9855.870349616484</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9855.870349616484</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9855.870349616484</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-9656.370349616484</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-9656.370349616484</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-9256.471249616483</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-9716.471249616483</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-10140.93114961648</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-10142.19694961648</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-9942.41554961648</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-9942.41554961648</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-10492.42624319446</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-10274.42884319446</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-10271.50794319446</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-14177.36424319446</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-13845.11484319446</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-13845.11484319446</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-13875.16924319446</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-13703.08464319446</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-13682.79264319446</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-13673.09024319446</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-13677.71154319446</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-13684.96284319446</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-13684.96284319446</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-13698.99984319446</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-13698.78544319446</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-13865.84544319446</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-13865.84544319446</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-13865.84544319446</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-13794.81224319446</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-13794.81224319446</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-13680.71224319446</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-13680.71224319446</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-13605.71224319446</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-13617.01224319446</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-13623.79424319446</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-14268.85384319446</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-14144.19144319446</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-14442.73044319446</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-14502.72364319446</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-14502.72364319446</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-14502.72364319446</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-15066.41584319446</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-14756.21814319446</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-14071.97334319446</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-14512.55174319446</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-14513.55174319446</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-14495.16814319446</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-11910.96444319446</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-12296.12054319446</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-12296.44614319446</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-11976.39944319446</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-11976.39944319446</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-12336.24614319446</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-11422.29154319446</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-3344.384043194464</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-9004.414443194462</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-13183.72614319446</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-14106.04184319446</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-13778.23924319446</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-13778.23924319446</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-13778.23924319446</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-13884.42344319446</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-13853.73144319446</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-13128.57554319446</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-13124.80704319446</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-12537.21504319446</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-11515.91504319446</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-11735.93484319446</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-12094.98584319446</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-11740.16104319446</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-12142.19094319446</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-12142.19094319446</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-12142.19094319446</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-11824.52854319446</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-11621.69294319446</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-10516.13304319446</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-12004.75704319446</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-12293.87334319446</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-12689.49134319446</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-12884.33414319446</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-12249.24744319446</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-12106.39244319446</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-12106.39244319446</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-10203.68834319446</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-11319.99074319446</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-11319.99074319446</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-12412.09784319446</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-11556.91774319446</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-9740.181143194462</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-10717.16354319446</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-10553.76094319446</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-11561.56304319446</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-11561.56304319446</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-9494.689543194465</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-10479.10964319446</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-10355.83244319446</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-11827.94974319446</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-11818.88164319446</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-11518.08164319446</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-9526.562043194464</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-10021.60564319447</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-10117.00934319447</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-10785.93064319447</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-11080.41774319447</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-11532.71984319447</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-11844.07774319447</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-25836.33053993806</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-25836.33053993806</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-25836.33053993806</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-25733.98733993806</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-25735.52063993806</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-25373.38141915766</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-25956.28921280558</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-25956.28921280558</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-25974.36001280558</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-25969.65071280558</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-25977.52061280558</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-25966.19261280558</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-26003.51381280558</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-25879.88571280558</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-25879.88571280558</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-25877.00971280557</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-23787.11241280557</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-23785.02551280558</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-24603.32461280558</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-24413.60511280558</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-24413.60511280558</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-24293.60511280558</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-24012.72461280558</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-22920.28731280558</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-22920.28731280558</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-22632.28731280558</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-22632.28731280558</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-22773.94541280558</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-22699.02551280558</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-22893.77791280558</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-22893.77791280558</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-22887.27791280558</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-22750.64161280558</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-22733.85111280558</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-22421.79011280558</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-22422.74531280558</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-22422.74531280558</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-22422.74531280558</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-22787.25921280558</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-22787.25921280558</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-22794.32231280558</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-27038.04051280558</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-28731.38351280558</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-28760.64351280558</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-28760.64351280558</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-29027.44911280558</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-29403.24711280558</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-29403.24711280558</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-29403.24711280558</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-29384.39441280558</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-29384.39441280558</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-29043.95639276915</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-29328.72639276914</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-29542.16919276914</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-30035.78269276914</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-30323.69679276913</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-30323.69679276913</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-30027.83719276913</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-30042.42429276913</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-33113.96319276914</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-33113.96319276914</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-32730.90779276914</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-32830.90779276914</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-33452.97999276914</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-34842.28339276914</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-34831.78339276914</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-34831.78339276914</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-35135.57879276913</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-35423.46639276914</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-34796.87109276914</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-35203.18359276914</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-35254.76719276913</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-35254.76719276913</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-35602.87999276914</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-35588.89869276914</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-35795.42829276914</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-35790.12089276914</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-35788.71859276914</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-35443.25559276914</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-35577.66769276914</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-35542.56529276913</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-35305.38260227055</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-34735.64630227056</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-35007.61770227056</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-35007.61770227056</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-34996.77140227056</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-35062.59310227056</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-35065.59310227056</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-34933.75430227056</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-34933.75430227056</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-35067.49010227057</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-35067.49010227057</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-34966.49010227057</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-34910.49010227057</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-34910.49010227057</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-35451.03060227057</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-35429.03060227057</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-35470.16060227057</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-35355.44770227057</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-35494.80530227057</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-35494.80530227057</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5237.605217263543</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-6553.506217263543</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-5391.176317263543</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-7840.319617263543</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-7840.319617263543</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-6911.816117263544</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-9524.537217263542</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-9449.537217263542</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-7905.484517263541</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4634.752617263541</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-2339.391717263541</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-488.9272172635406</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2986.37631726354</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2072.21151726354</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2072.21151726354</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-2372.74911726354</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3582.24741726354</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-3848.96201726354</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-3611.883417263541</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-2292.90941726354</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2292.90941726354</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2292.90941726354</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2282.806017263541</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2181.606017263541</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2150.900217263541</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2012.844117263541</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2100.93071726354</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2138.13821726354</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-2224.189549616482</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-2224.189549616482</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-2623.189549616482</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2554.579349616482</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2552.492549616481</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1956.708449616482</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1199.301249616482</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>438.2216503835184</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>26.14365038351843</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>516.4816503835184</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>4839.062650383518</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>3808.759350383518</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>4207.440850383518</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5119.752550383519</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4361.956250383519</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>4674.311650383519</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>5795.954050383519</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5173.523550383518</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>5461.800050383518</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>6503.709550383518</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>3747.184950383518</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3651.973650383518</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>4217.284750383518</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>3846.686350383518</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>274.8322503835179</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-994.3987496164822</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-893.0772496164822</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1396.126349616482</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1799.911049616482</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1955.101049616482</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-2392.489349616482</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4197.219549616482</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-10183.44634961648</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-10810.41264961648</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-9855.870349616484</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9855.870349616484</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9855.870349616484</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-9656.370349616484</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-9656.370349616484</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-9256.471249616483</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-9716.471249616483</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-10140.93114961648</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-10142.19694961648</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-9942.41554961648</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-9942.41554961648</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-10492.42624319446</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-10274.42884319446</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-10271.50794319446</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-14177.36424319446</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-13845.11484319446</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-13845.11484319446</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-13875.16924319446</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-13703.08464319446</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-13682.79264319446</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-13673.09024319446</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-13677.71154319446</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-13684.96284319446</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-13684.96284319446</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-13698.99984319446</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-13698.78544319446</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-13865.84544319446</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-13865.84544319446</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-13865.84544319446</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-13794.81224319446</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-13794.81224319446</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-13680.71224319446</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-13680.71224319446</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-13605.71224319446</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-13617.01224319446</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-13623.79424319446</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-14268.85384319446</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-14144.19144319446</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-14442.73044319446</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-14502.72364319446</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-14502.72364319446</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-14502.72364319446</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-14692.72794319446</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-15066.41584319446</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-14756.21814319446</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-14071.97334319446</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-14512.55174319446</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-14513.55174319446</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-14495.16814319446</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-11910.96444319446</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-12296.12054319446</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-12296.44614319446</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-11976.39944319446</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-11976.39944319446</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-12336.24614319446</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-11422.29154319446</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-3344.384043194464</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-9004.414443194462</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-13183.72614319446</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-14106.04184319446</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-13778.23924319446</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-13778.23924319446</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-13778.23924319446</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-13884.42344319446</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-13853.73144319446</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-13128.57554319446</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-13124.80704319446</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-12537.21504319446</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-11515.91504319446</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-11735.93484319446</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-12094.98584319446</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-11740.16104319446</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-12142.19094319446</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-12142.19094319446</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-12142.19094319446</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-11824.52854319446</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-11621.69294319446</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-10516.13304319446</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-12004.75704319446</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-12293.87334319446</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-12689.49134319446</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-12884.33414319446</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-12249.24744319446</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-12106.39244319446</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-12106.39244319446</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-12938.68444319446</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-8559.655543194462</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-10203.68834319446</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-11319.99074319446</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-11319.99074319446</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-12412.09784319446</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-11556.91774319446</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-9740.181143194462</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-10717.16354319446</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-10553.76094319446</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-11561.56304319446</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-11561.56304319446</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-9494.689543194465</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-10479.10964319446</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-10355.83244319446</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-11827.94974319446</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-11818.88164319446</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-11518.08164319446</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-9526.562043194464</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-10021.60564319447</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-10117.00934319447</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-10785.93064319447</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-11080.41774319447</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-11532.71984319447</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-11844.07774319447</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-25836.33053993806</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-25836.33053993806</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-25836.33053993806</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-25733.98733993806</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-25735.52063993806</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-25373.38141915766</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-25956.28921280558</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-25956.28921280558</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-25974.36001280558</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-25969.65071280558</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-25977.52061280558</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-25966.19261280558</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-26003.51381280558</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-25879.88571280558</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-25879.88571280558</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-25877.00971280557</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-23787.11241280557</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-23785.02551280558</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-24603.32461280558</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-24413.60511280558</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-24413.60511280558</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-24293.60511280558</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-24012.72461280558</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-22920.28731280558</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-22920.28731280558</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-22632.28731280558</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-22632.28731280558</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-22773.94541280558</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-22699.02551280558</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-22893.77791280558</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-22893.77791280558</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-22887.27791280558</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-22750.64161280558</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-22733.85111280558</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-22421.79011280558</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-22422.74531280558</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-22422.74531280558</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-22422.74531280558</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-22787.25921280558</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-22787.25921280558</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-22794.32231280558</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-27038.04051280558</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-28731.38351280558</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-28760.64351280558</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-28760.64351280558</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-29027.44911280558</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-29403.24711280558</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-29403.24711280558</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-29403.24711280558</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-29384.39441280558</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-29384.39441280558</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-29043.95639276915</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-29328.72639276914</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-29542.16919276914</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-30035.78269276914</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-30323.69679276913</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-30323.69679276913</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-30027.83719276913</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-30042.42429276913</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-33113.96319276914</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-33113.96319276914</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-32891.61949276914</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-32730.90779276914</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-32830.90779276914</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-33452.97999276914</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-33491.83219276914</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-34529.06299276914</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-34521.67109276914</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-34831.78339276914</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-34830.27969276914</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-35135.57879276913</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-35423.46639276914</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-34796.87109276914</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-35203.18359276914</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-35254.76719276913</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-35254.76719276913</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-35602.87999276914</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-35588.89869276914</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-35795.42829276914</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-35790.12089276914</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-35788.71859276914</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-35443.25559276914</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-35577.66769276914</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-35542.56529276913</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-35305.38260227055</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-35173.80810227054</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-35061.46810227055</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-35335.78060227055</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-35112.93640227055</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-34951.05730227055</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-35054.06730227055</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-35057.07730227055</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-35040.31070227055</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-34441.55570227055</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-34441.99640227055</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-34438.49640227055</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-34425.17640227055</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-34425.17640227055</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-34551.46410227055</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-34666.26820227056</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-34735.64630227056</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-34735.64630227056</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-35007.61770227056</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-35007.61770227056</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-34996.77140227056</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-35062.59310227056</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-35065.59310227056</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-34933.75430227056</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-34933.75430227056</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-35067.49010227057</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-35067.49010227057</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-34966.49010227057</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-34910.49010227057</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-34910.49010227057</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-35451.03060227057</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-35429.03060227057</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-35470.16060227057</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-35355.44770227057</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-35494.80530227057</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-35494.80530227057</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-35497.86530227057</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
